--- a/Database 1.xlsx
+++ b/Database 1.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>№ Автобуса</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Маршрут</t>
   </si>
@@ -28,6 +25,39 @@
   </si>
   <si>
     <t>Конндуктор</t>
+  </si>
+  <si>
+    <t>id Автобуса</t>
+  </si>
+  <si>
+    <t>Год выпуска</t>
+  </si>
+  <si>
+    <t>ТО до</t>
+  </si>
+  <si>
+    <t>Пробег, км</t>
+  </si>
+  <si>
+    <t>ГРЗ</t>
+  </si>
+  <si>
+    <t>№ по парку</t>
+  </si>
+  <si>
+    <t>ат 155 16</t>
+  </si>
+  <si>
+    <t>ак 136 23</t>
+  </si>
+  <si>
+    <t>ао 143 55</t>
+  </si>
+  <si>
+    <t>ам 104 79</t>
+  </si>
+  <si>
+    <t>ас 365 78</t>
   </si>
 </sst>
 </file>
@@ -86,13 +116,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,103 +422,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>82</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E2" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E3" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database 1.xlsx
+++ b/Database 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Маршрут</t>
   </si>
@@ -58,6 +58,60 @@
   </si>
   <si>
     <t>ас 365 78</t>
+  </si>
+  <si>
+    <t>Автобусы</t>
+  </si>
+  <si>
+    <t>Маршруты</t>
+  </si>
+  <si>
+    <t>id маршрута</t>
+  </si>
+  <si>
+    <t>Начальная станция</t>
+  </si>
+  <si>
+    <t>Конечная станция</t>
+  </si>
+  <si>
+    <t>Время в пути, мин</t>
+  </si>
+  <si>
+    <t>Протяженность маршрута, км</t>
+  </si>
+  <si>
+    <t>Время стоянки в пункте оборота, мин</t>
+  </si>
+  <si>
+    <t>ул. Свободы</t>
+  </si>
+  <si>
+    <t>Лубянская площадь</t>
+  </si>
+  <si>
+    <t>пр. Стачек</t>
+  </si>
+  <si>
+    <t>ш. Революции</t>
+  </si>
+  <si>
+    <t>ул. Виноградная</t>
+  </si>
+  <si>
+    <t>ул. Роз</t>
+  </si>
+  <si>
+    <t>ул. Декабристов</t>
+  </si>
+  <si>
+    <t>ул. Карла Маркса</t>
+  </si>
+  <si>
+    <t>ул. Ленина</t>
+  </si>
+  <si>
+    <t>ул. Достоевского</t>
   </si>
 </sst>
 </file>
@@ -89,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -112,11 +166,283 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,8 +451,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,151 +815,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="K11" sqref="K10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="6" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
+    <row r="4" spans="2:7">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C4" s="9">
         <v>82</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E4" s="9">
         <v>2020</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F4" s="9">
         <v>25000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G4" s="10">
         <v>44774</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
+    <row r="5" spans="2:7">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C5" s="3">
         <v>67</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E5" s="3">
         <v>2019</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F5" s="3">
         <v>35000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G5" s="5">
         <v>44806</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+    <row r="6" spans="2:7">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C6" s="3">
         <v>105</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E6" s="3">
         <v>2022</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F6" s="3">
         <v>3000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G6" s="5">
         <v>44684</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
+    <row r="7" spans="2:7">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C7" s="3">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E7" s="3">
         <v>2017</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F7" s="3">
         <v>55000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G7" s="5">
         <v>44746</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
+    <row r="8" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C8" s="7">
         <v>56</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E8" s="7">
         <v>2019</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F8" s="7">
         <v>30000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G8" s="17">
         <v>44870</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+    <row r="9" spans="2:7">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="2:7" ht="30">
+      <c r="B12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="22">
+        <v>17.3</v>
+      </c>
+      <c r="F13" s="22">
+        <v>39</v>
+      </c>
+      <c r="G13" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="22">
+        <v>19.2</v>
+      </c>
+      <c r="F14" s="22">
+        <v>51</v>
+      </c>
+      <c r="G14" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="F17" s="7">
+        <v>8</v>
+      </c>
+      <c r="G17" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B11:G11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/Database 1.xlsx
+++ b/Database 1.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Маршрут</t>
-  </si>
-  <si>
-    <t>Водитель</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Конндуктор</t>
   </si>
@@ -66,9 +60,6 @@
     <t>Маршруты</t>
   </si>
   <si>
-    <t>id маршрута</t>
-  </si>
-  <si>
     <t>Начальная станция</t>
   </si>
   <si>
@@ -112,6 +103,60 @@
   </si>
   <si>
     <t>ул. Достоевского</t>
+  </si>
+  <si>
+    <t>Водители</t>
+  </si>
+  <si>
+    <t>id Маршрута</t>
+  </si>
+  <si>
+    <t>id Водителя</t>
+  </si>
+  <si>
+    <t>Стаж</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Мед. Комиссия до</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>+7-900-123-45-67</t>
+  </si>
+  <si>
+    <t>+7-900-123-45-68</t>
+  </si>
+  <si>
+    <t>+7-900-123-45-69</t>
+  </si>
+  <si>
+    <t>+7-900-123-45-70</t>
+  </si>
+  <si>
+    <t>+7-900-123-45-71</t>
+  </si>
+  <si>
+    <t>Иванов И.И.</t>
+  </si>
+  <si>
+    <t>Петров П.П.</t>
+  </si>
+  <si>
+    <t>Васильев В.В.</t>
+  </si>
+  <si>
+    <t>Николаев Н.Н.</t>
+  </si>
+  <si>
+    <t>Алексеев А.А.</t>
   </si>
 </sst>
 </file>
@@ -143,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -438,11 +483,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,21 +524,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,16 +552,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -815,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G20"/>
+  <dimension ref="B2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K10:K11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -829,301 +902,421 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="16"/>
-    </row>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="8">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C5" s="27">
         <v>82</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="27">
         <v>2020</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="27">
         <v>25000</v>
       </c>
-      <c r="G4" s="10">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>67</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2019</v>
-      </c>
-      <c r="F5" s="3">
-        <v>35000</v>
-      </c>
-      <c r="G5" s="5">
-        <v>44806</v>
+      <c r="G5" s="28">
+        <v>44835</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F6" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G6" s="5">
-        <v>44684</v>
+        <v>35000</v>
+      </c>
+      <c r="G6" s="25">
+        <v>44798</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>105</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G7" s="25">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="3">
+        <v>55000</v>
+      </c>
+      <c r="G8" s="25">
+        <v>44877</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
-        <v>2017</v>
-      </c>
-      <c r="F7" s="3">
-        <v>55000</v>
-      </c>
-      <c r="G7" s="5">
-        <v>44746</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7">
-        <v>56</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E9" s="7">
+        <v>2019</v>
+      </c>
+      <c r="F9" s="7">
+        <v>30000</v>
+      </c>
+      <c r="G9" s="29">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="20">
+        <v>17.3</v>
+      </c>
+      <c r="F14" s="20">
+        <v>39</v>
+      </c>
+      <c r="G14" s="21">
         <v>11</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2019</v>
-      </c>
-      <c r="F8" s="7">
-        <v>30000</v>
-      </c>
-      <c r="G8" s="17">
-        <v>44870</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="2:7" ht="30">
-      <c r="B12" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="22">
-        <v>17.3</v>
-      </c>
-      <c r="F13" s="22">
-        <v>39</v>
-      </c>
-      <c r="G13" s="27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="22">
-        <v>19.2</v>
-      </c>
-      <c r="F14" s="22">
-        <v>51</v>
-      </c>
-      <c r="G14" s="27">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="F15" s="3">
-        <v>15</v>
-      </c>
-      <c r="G15" s="5">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="17">
+        <v>19.2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>51</v>
+      </c>
+      <c r="G15" s="19">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="4">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E18" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="F18" s="7">
+        <v>8</v>
+      </c>
+      <c r="G18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B17" s="6">
+      <c r="C21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="30">
+        <v>32205</v>
+      </c>
+      <c r="F23" s="17">
+        <v>12</v>
+      </c>
+      <c r="G23" s="28">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="30">
+        <v>29376</v>
+      </c>
+      <c r="F24" s="17">
+        <v>15</v>
+      </c>
+      <c r="G24" s="25">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="30">
+        <v>27008</v>
+      </c>
+      <c r="F25" s="17">
+        <v>22</v>
+      </c>
+      <c r="G25" s="25">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="30">
+        <v>24064</v>
+      </c>
+      <c r="F26" s="17">
+        <v>31</v>
+      </c>
+      <c r="G26" s="25">
+        <v>44877</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B27" s="6">
         <v>5</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="F17" s="7">
-        <v>8</v>
-      </c>
-      <c r="G17" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="C27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="31">
+        <v>34780</v>
+      </c>
+      <c r="F27" s="7">
+        <v>7</v>
+      </c>
+      <c r="G27" s="29">
+        <v>44757</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B11:G11"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Database 1.xlsx
+++ b/Database 1.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Конндуктор</t>
   </si>
@@ -157,6 +155,18 @@
   </si>
   <si>
     <t>Алексеев А.А.</t>
+  </si>
+  <si>
+    <t>№ Маршрута</t>
+  </si>
+  <si>
+    <t>№ Автобуса</t>
+  </si>
+  <si>
+    <t>Автобусы на определенных маршрутах</t>
+  </si>
+  <si>
+    <t>Водители на определенных автобусах</t>
   </si>
 </sst>
 </file>
@@ -188,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -496,11 +506,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -524,28 +560,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -593,6 +611,45 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G27"/>
+  <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -904,52 +961,52 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="21">
         <v>82</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="21">
         <v>2020</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="21">
         <v>25000</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="22">
         <v>44835</v>
       </c>
     </row>
@@ -969,7 +1026,7 @@
       <c r="F6" s="3">
         <v>35000</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="19">
         <v>44798</v>
       </c>
     </row>
@@ -989,7 +1046,7 @@
       <c r="F7" s="3">
         <v>3000</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="19">
         <v>44832</v>
       </c>
     </row>
@@ -1009,7 +1066,7 @@
       <c r="F8" s="3">
         <v>55000</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="19">
         <v>44877</v>
       </c>
     </row>
@@ -1029,17 +1086,17 @@
       <c r="F9" s="7">
         <v>30000</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="23">
         <v>44757</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1">
       <c r="B11" s="2"/>
@@ -1050,32 +1107,32 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1083,19 +1140,19 @@
       <c r="B14" s="8">
         <v>1</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="14">
         <v>17.3</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="14">
         <v>39</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1103,19 +1160,19 @@
       <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="11">
         <v>19.2</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="11">
         <v>51</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="13">
         <v>9</v>
       </c>
     </row>
@@ -1175,40 +1232,40 @@
       <c r="F18" s="7">
         <v>8</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="21" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1216,19 +1273,19 @@
       <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="24">
         <v>32205</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="11">
         <v>12</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="22">
         <v>44835</v>
       </c>
     </row>
@@ -1236,19 +1293,19 @@
       <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="24">
         <v>29376</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="11">
         <v>15</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="19">
         <v>44798</v>
       </c>
     </row>
@@ -1256,19 +1313,19 @@
       <c r="B25" s="4">
         <v>3</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="24">
         <v>27008</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="11">
         <v>22</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="19">
         <v>44832</v>
       </c>
     </row>
@@ -1276,19 +1333,19 @@
       <c r="B26" s="4">
         <v>4</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="24">
         <v>24064</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="11">
         <v>31</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="19">
         <v>44877</v>
       </c>
     </row>
@@ -1302,49 +1359,195 @@
       <c r="D27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="25">
         <v>34780</v>
       </c>
       <c r="F27" s="7">
         <v>7</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="23">
         <v>44757</v>
       </c>
     </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B30" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B31" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="4">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="4">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B39" s="6">
+        <v>5</v>
+      </c>
+      <c r="C39" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="42" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B42" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="29"/>
+    </row>
+    <row r="43" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B43" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="20">
+        <v>1</v>
+      </c>
+      <c r="C44" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="4">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="4">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="4">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="4">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="4">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="4">
+        <v>4</v>
+      </c>
+      <c r="C50" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B51" s="6">
+        <v>5</v>
+      </c>
+      <c r="C51" s="9">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
 </file>